--- a/Mag/Optimization of working energysystems/Homework 2/Find_losses/СШ1_СШ2 итог.xlsx
+++ b/Mag/Optimization of working energysystems/Homework 2/Find_losses/СШ1_СШ2 итог.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\Learning\Mag\Optimization of working energysystems\Homework 2\Find_losses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C05024A-5C6E-4548-9D87-B3D00D91D416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3EF12-E63D-4B56-B997-83E2D2B60C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="492" windowWidth="22584" windowHeight="13476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="18372" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,6 +282,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,18 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
       <selection sqref="A1:W38"/>
     </sheetView>
   </sheetViews>
@@ -643,102 +643,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -762,11 +762,11 @@
       <c r="H3" s="2">
         <v>26.779</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="7">
         <f>C7+C8</f>
         <v>4996</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="7">
         <f>SUM(H3:H8)</f>
         <v>381.678</v>
       </c>
@@ -774,7 +774,7 @@
         <f>(J3/(I3+J3))*100</f>
         <v>7.0974498659086702</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -798,7 +798,7 @@
       <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="7">
         <v>4996</v>
       </c>
       <c r="V3" s="10">
@@ -811,7 +811,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,10 +833,10 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="11"/>
-      <c r="M4" s="6"/>
+      <c r="M4" s="5"/>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,12 +858,12 @@
       <c r="T4" s="1">
         <v>13.388999999999999</v>
       </c>
-      <c r="U4" s="4"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -885,10 +885,10 @@
       <c r="H5" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="11"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="5"/>
       <c r="N5" s="1" t="s">
         <v>5</v>
       </c>
@@ -910,12 +910,12 @@
       <c r="T5" s="1">
         <v>0</v>
       </c>
-      <c r="U5" s="4"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
@@ -937,10 +937,10 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="11"/>
-      <c r="M6" s="6"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
@@ -962,12 +962,12 @@
       <c r="T6" s="1">
         <v>220.97900000000001</v>
       </c>
-      <c r="U6" s="4"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -989,10 +989,10 @@
       <c r="H7" s="2">
         <v>220.97900000000001</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="11"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,12 +1014,12 @@
       <c r="T7" s="1">
         <v>130.09299999999999</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="U7" s="8"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1041,10 +1041,10 @@
       <c r="H8" s="2">
         <v>3.827</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="12"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,12 +1066,12 @@
       <c r="T8" s="1">
         <v>3.827</v>
       </c>
-      <c r="U8" s="5"/>
+      <c r="U8" s="9"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1095,19 +1095,19 @@
       <c r="H9" s="2">
         <v>26.779</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="7">
         <f>C12+C13</f>
         <v>4996</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="7">
         <f>SUM(H9:H14)</f>
         <v>266.58100000000002</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" ref="J9:K9" si="0">(J9/(I9+J9))*100</f>
+        <f t="shared" ref="K9" si="0">(J9/(I9+J9))*100</f>
         <v>5.0655942397846232</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -1131,7 +1131,7 @@
       <c r="T9" s="1">
         <v>2.8730000000000002</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="7">
         <v>4996</v>
       </c>
       <c r="V9" s="10">
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1166,10 +1166,10 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="11"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,12 +1191,12 @@
       <c r="T10" s="1">
         <v>88.438000000000002</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1218,10 +1218,10 @@
       <c r="H11" s="2">
         <v>72.73</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="11"/>
-      <c r="M11" s="6"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,12 +1243,12 @@
       <c r="T11" s="1">
         <v>4.2359999999999998</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1270,10 +1270,10 @@
       <c r="H12" s="2">
         <v>133.22999999999999</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="11"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1295,12 +1295,12 @@
       <c r="T12" s="1">
         <v>232.73400000000001</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1322,10 +1322,10 @@
       <c r="H13" s="2">
         <v>28.213000000000001</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="11"/>
-      <c r="M13" s="6"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1347,12 +1347,12 @@
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1374,10 +1374,10 @@
       <c r="H14" s="2">
         <v>5.6289999999999996</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="12"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1399,12 +1399,12 @@
       <c r="T14" s="1">
         <v>5.359</v>
       </c>
-      <c r="U14" s="5"/>
+      <c r="U14" s="9"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1428,18 +1428,18 @@
       <c r="H15" s="2">
         <v>2.8730000000000002</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>4996</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="7">
         <f t="shared" ref="J15" si="3">SUM(H15:H20)</f>
         <v>351.35199999999998</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" ref="J15:K15" si="4">(J15/(I15+J15))*100</f>
+        <f t="shared" ref="K15" si="4">(J15/(I15+J15))*100</f>
         <v>6.5705792324874075</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -1463,7 +1463,7 @@
       <c r="T15" s="1">
         <v>5.2560000000000002</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="7">
         <v>4996</v>
       </c>
       <c r="V15" s="10">
@@ -1476,7 +1476,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1498,10 +1498,10 @@
       <c r="H16" s="2">
         <v>27.306999999999999</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="11"/>
-      <c r="M16" s="6"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1523,12 +1523,12 @@
       <c r="T16" s="1">
         <v>24.981000000000002</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -1550,10 +1550,10 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="11"/>
-      <c r="M17" s="6"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,12 +1575,12 @@
       <c r="T17" s="1">
         <v>55.746000000000002</v>
       </c>
-      <c r="U17" s="4"/>
+      <c r="U17" s="8"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1602,10 +1602,10 @@
       <c r="H18" s="2">
         <v>232.73400000000001</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="11"/>
-      <c r="M18" s="6"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1627,12 +1627,12 @@
       <c r="T18" s="1">
         <v>27.911999999999999</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="U18" s="8"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1654,10 +1654,10 @@
       <c r="H19" s="2">
         <v>88.438000000000002</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="11"/>
-      <c r="M19" s="6"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1679,12 +1679,12 @@
       <c r="T19" s="1">
         <v>4.2359999999999998</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="8"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1706,10 +1706,10 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="12"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1731,12 +1731,12 @@
       <c r="T20" s="1">
         <v>88.882999999999996</v>
       </c>
-      <c r="U20" s="5"/>
+      <c r="U20" s="9"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1760,18 +1760,18 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="7">
         <v>4996</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="7">
         <f t="shared" ref="J21" si="7">SUM(H21:H26)</f>
         <v>364.30899999999997</v>
       </c>
       <c r="K21" s="10">
-        <f t="shared" ref="J21:K21" si="8">(J21/(I21+J21))*100</f>
+        <f t="shared" ref="K21" si="8">(J21/(I21+J21))*100</f>
         <v>6.7964178930729551</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -1795,7 +1795,7 @@
       <c r="T21" s="1">
         <v>2.8730000000000002</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="7">
         <v>4996</v>
       </c>
       <c r="V21" s="10">
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1830,10 +1830,10 @@
       <c r="H22" s="2">
         <v>4.1539999999999999</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="11"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1855,12 +1855,12 @@
       <c r="T22" s="1">
         <v>88.438000000000002</v>
       </c>
-      <c r="U22" s="4"/>
+      <c r="U22" s="8"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1882,10 +1882,10 @@
       <c r="H23" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="11"/>
-      <c r="M23" s="6"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1907,12 +1907,12 @@
       <c r="T23" s="1">
         <v>24.721</v>
       </c>
-      <c r="U23" s="4"/>
+      <c r="U23" s="8"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1934,10 +1934,10 @@
       <c r="H24" s="2">
         <v>220.97900000000001</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="11"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="5"/>
       <c r="N24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1959,12 +1959,12 @@
       <c r="T24" s="1">
         <v>232.73400000000001</v>
       </c>
-      <c r="U24" s="4"/>
+      <c r="U24" s="8"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1986,10 +1986,10 @@
       <c r="H25" s="2">
         <v>5.2560000000000002</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="11"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2011,12 +2011,12 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-      <c r="U25" s="4"/>
+      <c r="U25" s="8"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>16</v>
       </c>
@@ -2038,10 +2038,10 @@
       <c r="H26" s="2">
         <v>3.827</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="12"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2063,12 +2063,12 @@
       <c r="T26" s="1">
         <v>3.2610000000000001</v>
       </c>
-      <c r="U26" s="5"/>
+      <c r="U26" s="9"/>
       <c r="V26" s="12"/>
       <c r="W26" s="12"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2092,18 +2092,18 @@
       <c r="H27" s="2">
         <v>2.76</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="7">
         <v>4996</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="7">
         <f t="shared" ref="J27" si="10">SUM(H27:H32)</f>
         <v>414.27599999999995</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" ref="J27:K27" si="11">(J27/(I27+J27))*100</f>
+        <f t="shared" ref="K27" si="11">(J27/(I27+J27))*100</f>
         <v>7.6572063976033746</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -2127,7 +2127,7 @@
       <c r="T27" s="1">
         <v>4.7969999999999997</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="7">
         <v>4996</v>
       </c>
       <c r="V27" s="10">
@@ -2140,7 +2140,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
@@ -2162,10 +2162,10 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="11"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="1" t="s">
         <v>14</v>
       </c>
@@ -2187,12 +2187,12 @@
       <c r="T28" s="1">
         <v>17.844000000000001</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="U28" s="8"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2214,10 +2214,10 @@
       <c r="H29" s="2">
         <v>56.616999999999997</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="11"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2239,12 +2239,12 @@
       <c r="T29" s="1">
         <v>57.732999999999997</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
@@ -2266,10 +2266,10 @@
       <c r="H30" s="2">
         <v>220.97900000000001</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="11"/>
-      <c r="M30" s="6"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
@@ -2291,12 +2291,12 @@
       <c r="T30" s="1">
         <v>13.653</v>
       </c>
-      <c r="U30" s="4"/>
+      <c r="U30" s="8"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2318,10 +2318,10 @@
       <c r="H31" s="2">
         <v>130.09299999999999</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="11"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1" t="s">
         <v>16</v>
       </c>
@@ -2343,12 +2343,12 @@
       <c r="T31" s="1">
         <v>161.334</v>
       </c>
-      <c r="U31" s="4"/>
+      <c r="U31" s="8"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
@@ -2370,10 +2370,10 @@
       <c r="H32" s="2">
         <v>3.827</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
       <c r="K32" s="12"/>
-      <c r="M32" s="6"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2395,12 +2395,12 @@
       <c r="T32" s="1">
         <v>0</v>
       </c>
-      <c r="U32" s="5"/>
+      <c r="U32" s="9"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -2424,7 +2424,7 @@
       <c r="T33" s="1">
         <v>2.8730000000000002</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="7">
         <v>4996</v>
       </c>
       <c r="V33" s="10">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M34" s="6"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="1" t="s">
         <v>12</v>
       </c>
@@ -2459,12 +2459,12 @@
       <c r="T34" s="1">
         <v>88.438000000000002</v>
       </c>
-      <c r="U34" s="4"/>
+      <c r="U34" s="8"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M35" s="6"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="1" t="s">
         <v>8</v>
       </c>
@@ -2486,12 +2486,12 @@
       <c r="T35" s="1">
         <v>13.653</v>
       </c>
-      <c r="U35" s="4"/>
+      <c r="U35" s="8"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M36" s="6"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2513,12 +2513,12 @@
       <c r="T36" s="1">
         <v>232.73400000000001</v>
       </c>
-      <c r="U36" s="4"/>
+      <c r="U36" s="8"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M37" s="6"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="1" t="s">
         <v>5</v>
       </c>
@@ -2540,12 +2540,12 @@
       <c r="T37" s="1">
         <v>0</v>
       </c>
-      <c r="U37" s="4"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.3">
-      <c r="M38" s="6"/>
+      <c r="M38" s="5"/>
       <c r="N38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2567,24 +2567,25 @@
       <c r="T38" s="1">
         <v>0</v>
       </c>
-      <c r="U38" s="5"/>
+      <c r="U38" s="9"/>
       <c r="V38" s="12"/>
       <c r="W38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="M27:M32"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="I3:I8"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="I21:I26"/>
-    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="U27:U32"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="V3:V8"/>
+    <mergeCell ref="V9:V14"/>
+    <mergeCell ref="V15:V20"/>
+    <mergeCell ref="V21:V26"/>
+    <mergeCell ref="V27:V32"/>
+    <mergeCell ref="V33:V38"/>
+    <mergeCell ref="W3:W8"/>
+    <mergeCell ref="W9:W14"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="W27:W32"/>
     <mergeCell ref="U33:U38"/>
     <mergeCell ref="J15:J20"/>
     <mergeCell ref="J21:J26"/>
@@ -2601,23 +2602,22 @@
     <mergeCell ref="M9:M14"/>
     <mergeCell ref="M15:M20"/>
     <mergeCell ref="M21:M26"/>
+    <mergeCell ref="M27:M32"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="I21:I26"/>
+    <mergeCell ref="I27:I32"/>
     <mergeCell ref="U3:U8"/>
     <mergeCell ref="U9:U14"/>
     <mergeCell ref="U15:U20"/>
     <mergeCell ref="U21:U26"/>
-    <mergeCell ref="U27:U32"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="V3:V8"/>
-    <mergeCell ref="V9:V14"/>
-    <mergeCell ref="V15:V20"/>
-    <mergeCell ref="V21:V26"/>
-    <mergeCell ref="V27:V32"/>
-    <mergeCell ref="V33:V38"/>
-    <mergeCell ref="W3:W8"/>
-    <mergeCell ref="W9:W14"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="W27:W32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
